--- a/CashFlow/OTIS_cashflow.xlsx
+++ b/CashFlow/OTIS_cashflow.xlsx
@@ -234,19 +234,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2641000000.0</v>
+        <v>-66000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2554000000.0</v>
+        <v>-76000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1924000000.0</v>
+        <v>-72000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1264000000.0</v>
+        <v>-35000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>652000000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>60000000.0</v>
@@ -300,19 +300,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1319000000.0</v>
+        <v>4672000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2392000000.0</v>
+        <v>2924000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2451000000.0</v>
+        <v>1531000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2573000000.0</v>
+        <v>201000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1377000000.0</v>
+        <v>-14000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-34000000.0</v>
